--- a/biology/Médecine/Centre_Paul-Strauss/Centre_Paul-Strauss.xlsx
+++ b/biology/Médecine/Centre_Paul-Strauss/Centre_Paul-Strauss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre Paul-Strauss est un centre régional de lutte contre le cancer à Strasbourg, en France.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été fondé en 1923[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été fondé en 1923.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Moyens</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il comporte 640 salariés et traite près de 6000 patients par an[2]. Spécialisé dans le traitement des cancers, il se dote en 2018 d'un dispositif numérique visant à prévenir les erreurs de préparation des médicaments de chimiothérapie au sein de sa pharmacie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il comporte 640 salariés et traite près de 6000 patients par an. Spécialisé dans le traitement des cancers, il se dote en 2018 d'un dispositif numérique visant à prévenir les erreurs de préparation des médicaments de chimiothérapie au sein de sa pharmacie.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Controverse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2018, la révélation par Le Canard enchaîné du montant de la rémunération de son nouveau directeur entraine un malaise dans la communauté médicale alsacienne[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2018, la révélation par Le Canard enchaîné du montant de la rémunération de son nouveau directeur entraine un malaise dans la communauté médicale alsacienne,.
 </t>
         </is>
       </c>
